--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_3_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_3_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.30000000000052</v>
+        <v>25.1800000000005</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.000803692342906e-16</v>
+        <v>3.929993007522678e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>54.62713712896236</v>
+        <v>57.06381856368852</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.86630879420372, 65.387965463721]</t>
+          <t>[45.277677653523924, 68.84995947385312]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.591237119836271</v>
+        <v>1.415131825941348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.377394977249578, 1.8050792624229643]</t>
+          <t>[1.1887107337907317, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.12909797408051</v>
+        <v>63.97707319730128</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[61.080589813479726, 75.1776061346813]</t>
+          <t>[56.67522885135239, 71.27891754325017]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.89269269269308</v>
+        <v>19.50882882882922</v>
       </c>
       <c r="X2" t="n">
-        <v>18.031631631632</v>
+        <v>18.60144144144181</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.75375375375416</v>
+        <v>20.41621621621663</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.14000000000033</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94098079223204e-13</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="H3" t="n">
-        <v>7.815413241687309e-13</v>
+        <v>5.450914489134343e-15</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.61037591525926</v>
+        <v>53.39158391771458</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.83395153719188, 68.38680029332664]</t>
+          <t>[38.102977960833186, 68.68018987459597]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.057454523945012e-08</v>
+        <v>1.586959452737347e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.057454523945012e-08</v>
+        <v>1.586959452737347e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7736053981812701</v>
+        <v>-0.8427896207828471</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.47171060864711567, 1.0755001877154244]</t>
+          <t>[-1.1321054607530776, -0.5534737808126167]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.252357913372748e-06</v>
+        <v>5.091722310446301e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.252357913372748e-06</v>
+        <v>5.091722310446301e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>66.19440940184441</v>
+        <v>60.81332351574046</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.667997212754685, 74.72082159093414]</t>
+          <t>[52.73589399297968, 68.89075303850123]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.1678078078081</v>
+        <v>3.09581581581584</v>
       </c>
       <c r="X3" t="n">
-        <v>20.00792792792821</v>
+        <v>2.033073073073092</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.327687687688</v>
+        <v>4.158558558558587</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_3_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_3_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1800000000005</v>
+        <v>25.54000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.929993007522678e-16</v>
+        <v>4.249657510526915e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.06381856368852</v>
+        <v>56.83641240567801</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[45.277677653523924, 68.84995947385312]</t>
+          <t>[44.62043856967085, 69.05238624168517]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941348</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1887107337907317, 1.6415529180919641]</t>
+          <t>[1.5157634224527339, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.97707319730128</v>
+        <v>65.36254541440063</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[56.67522885135239, 71.27891754325017]</t>
+          <t>[58.08139747894654, 72.64369334985471]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.50882882882922</v>
+        <v>18.40720720720761</v>
       </c>
       <c r="X2" t="n">
-        <v>18.60144144144181</v>
+        <v>17.4357157157161</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.41621621621663</v>
+        <v>19.37869869869911</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.08000000000017</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>3.235633982967556e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>5.450914489134343e-15</v>
+        <v>8.597457111561646e-12</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>53.39158391771458</v>
+        <v>50.23078345914162</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.102977960833186, 68.68018987459597]</t>
+          <t>[35.725945284628224, 64.73562163365501]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.586959452737347e-10</v>
+        <v>2.149269651141594e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.586959452737347e-10</v>
+        <v>2.149269651141594e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.1321054607530776, -0.5534737808126167]</t>
+          <t>[-2.0252108797916186, -1.3711055024676178]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.091722310446301e-08</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.091722310446301e-08</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.81332351574046</v>
+        <v>60.98145668300032</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.73589399297968, 68.89075303850123]</t>
+          <t>[52.115397917303426, 69.84751544869721]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.09581581581584</v>
+        <v>6.086486486486507</v>
       </c>
       <c r="X3" t="n">
-        <v>2.033073073073092</v>
+        <v>4.914274274274291</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.158558558558587</v>
+        <v>7.258698698698723</v>
       </c>
     </row>
   </sheetData>
